--- a/IceCreamFaves.xlsx
+++ b/IceCreamFaves.xlsx
@@ -1,29 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28209"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nick/dev/bootcamp/DataViz-Lesson-Plans/01-Lesson-Plans/01-Excel/3/Activities/01-Stu_IceCreamFaves/Solved/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/keribroughton/KeriBroughton/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FC2AA50-5020-104C-81B3-1DA36F35FD30}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5300" yWindow="1700" windowWidth="14620" windowHeight="14080"/>
+    <workbookView xWindow="5300" yWindow="1700" windowWidth="14620" windowHeight="14080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -77,7 +83,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -185,15 +191,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C11" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:C11"/>
-  <sortState ref="A2:C11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:C11" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:C11" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C11">
     <sortCondition descending="1" ref="C1:C11"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" name="Flavor"/>
-    <tableColumn id="2" name="Number of Faves"/>
-    <tableColumn id="3" name="Percentage of Total" dataDxfId="0" dataCellStyle="Percent">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Flavor"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Number of Faves"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Percentage of Total" dataDxfId="0" dataCellStyle="Percent">
       <calculatedColumnFormula>B2/$A$15</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -497,11 +503,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -529,11 +535,11 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>96</v>
+        <v>965</v>
       </c>
       <c r="C2" s="2">
         <f t="shared" ref="C2:C11" si="0">B2/$A$15</f>
-        <v>0.16</v>
+        <v>0.65690946221919677</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -545,7 +551,7 @@
       </c>
       <c r="C3" s="2">
         <f t="shared" si="0"/>
-        <v>0.15666666666666668</v>
+        <v>6.3989108236895853E-2</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -557,7 +563,7 @@
       </c>
       <c r="C4" s="2">
         <f t="shared" si="0"/>
-        <v>0.13166666666666665</v>
+        <v>5.3778080326752895E-2</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -569,7 +575,7 @@
       </c>
       <c r="C5" s="2">
         <f t="shared" si="0"/>
-        <v>0.11166666666666666</v>
+        <v>4.5609257998638526E-2</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -581,7 +587,7 @@
       </c>
       <c r="C6" s="2">
         <f t="shared" si="0"/>
-        <v>0.10666666666666667</v>
+        <v>4.3567052416609936E-2</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -593,7 +599,7 @@
       </c>
       <c r="C7" s="2">
         <f t="shared" si="0"/>
-        <v>9.5000000000000001E-2</v>
+        <v>3.880190605854323E-2</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -605,7 +611,7 @@
       </c>
       <c r="C8" s="2">
         <f t="shared" si="0"/>
-        <v>8.8333333333333333E-2</v>
+        <v>3.6078965282505107E-2</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -617,7 +623,7 @@
       </c>
       <c r="C9" s="2">
         <f t="shared" si="0"/>
-        <v>6.8333333333333329E-2</v>
+        <v>2.7910142954390742E-2</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -629,7 +635,7 @@
       </c>
       <c r="C10" s="2">
         <f t="shared" si="0"/>
-        <v>5.6666666666666664E-2</v>
+        <v>2.3144996596324029E-2</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -641,7 +647,7 @@
       </c>
       <c r="C11" s="2">
         <f t="shared" si="0"/>
-        <v>2.5000000000000001E-2</v>
+        <v>1.0211027910142955E-2</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -652,7 +658,7 @@
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <f>SUM(B2:B11)</f>
-        <v>600</v>
+        <v>1469</v>
       </c>
     </row>
   </sheetData>
